--- a/Results/4th Sem Results.xlsx
+++ b/Results/4th Sem Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Imp\Coding\Python\Projects\Selenium\RGPV Result Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Imp\Coding\Python\Projects\Selenium\RGPV Result Bot\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3DEB0D23-2F20-4783-B586-E37C70FA235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0711D179-F793-4E97-AECB-03961AB12367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6B8163A5-99D5-42D5-BAE9-C4DDFFD45228}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6B8163A5-99D5-42D5-BAE9-C4DDFFD45228}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="176">
   <si>
     <t>Roll No.</t>
   </si>
@@ -545,13 +545,19 @@
   </si>
   <si>
     <t>ZAHARA RANGWALA</t>
+  </si>
+  <si>
+    <t>0827AL221081</t>
+  </si>
+  <si>
+    <t>MEGHA TOMAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,6 +688,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -874,7 +887,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1004,6 +1017,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF196B24"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF196B24"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF196B24"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF196B24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF196B24"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF196B24"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF196B24"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1049,9 +1090,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1111,8 +1155,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{711C9948-A9B5-4157-9A72-76D8B0F834DD}" name="Table1" displayName="Table1" ref="A1:J75" totalsRowShown="0">
-  <autoFilter ref="A1:J75" xr:uid="{711C9948-A9B5-4157-9A72-76D8B0F834DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{711C9948-A9B5-4157-9A72-76D8B0F834DD}" name="Table1" displayName="Table1" ref="A1:J76" totalsRowShown="0">
+  <autoFilter ref="A1:J76" xr:uid="{711C9948-A9B5-4157-9A72-76D8B0F834DD}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{B8CBBDD6-7A6C-460C-9BEF-B48AFF72AE76}" name="Roll No."/>
     <tableColumn id="2" xr3:uid="{95E94C84-EBB8-4B30-8D48-D58DD5422396}" name="Name"/>
@@ -1130,10 +1174,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D489459-39CE-4887-9D38-13A200E530CF}" name="Table13" displayName="Table13" ref="A1:J75" totalsRowShown="0">
-  <autoFilter ref="A1:J75" xr:uid="{711C9948-A9B5-4157-9A72-76D8B0F834DD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J75">
-    <sortCondition descending="1" ref="D1:D75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D489459-39CE-4887-9D38-13A200E530CF}" name="Table13" displayName="Table13" ref="A1:J76" totalsRowShown="0">
+  <autoFilter ref="A1:J76" xr:uid="{711C9948-A9B5-4157-9A72-76D8B0F834DD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J76">
+    <sortCondition descending="1" ref="D1:D76"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{88AF3885-1CF5-4CFF-B39B-C6BD5F8F1D66}" name="Roll No."/>
@@ -1152,10 +1196,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F31A781-BCF3-4684-9B29-BEA9AE451F2A}" name="Table134" displayName="Table134" ref="A1:J75" totalsRowShown="0">
-  <autoFilter ref="A1:J75" xr:uid="{711C9948-A9B5-4157-9A72-76D8B0F834DD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J75">
-    <sortCondition descending="1" ref="E1:E75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F31A781-BCF3-4684-9B29-BEA9AE451F2A}" name="Table134" displayName="Table134" ref="A1:J76" totalsRowShown="0">
+  <autoFilter ref="A1:J76" xr:uid="{711C9948-A9B5-4157-9A72-76D8B0F834DD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J76">
+    <sortCondition descending="1" ref="E1:E76"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{1320D79D-DE69-4320-8888-5B01187A8497}" name="Roll No."/>
@@ -1512,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62ECFDA4-AAE7-4354-BA58-8610FEFB8AE7}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,93 +1634,93 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>7.25</v>
-      </c>
-      <c r="E3">
-        <v>7.1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
+      <c r="A3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8.33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>6.67</v>
+        <v>7.25</v>
       </c>
       <c r="E4">
-        <v>6.59</v>
+        <v>7.1</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>5.58</v>
+        <v>6.67</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>6.59</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
@@ -1687,28 +1731,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5.58</v>
       </c>
       <c r="E6">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
@@ -1719,22 +1763,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>6.21</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>6.19</v>
+        <v>6.3</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -1751,25 +1795,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>6.54</v>
+        <v>6.21</v>
       </c>
       <c r="E8">
-        <v>6.48</v>
+        <v>6.19</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1778,164 +1822,164 @@
         <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>5.46</v>
+        <v>6.54</v>
       </c>
       <c r="E9">
-        <v>5.62</v>
+        <v>6.48</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>6.17</v>
+        <v>5.46</v>
       </c>
       <c r="E10">
-        <v>6.31</v>
+        <v>5.62</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>5.5</v>
+        <v>6.17</v>
       </c>
       <c r="E11">
-        <v>5.42</v>
+        <v>6.31</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>6.67</v>
+        <v>5.5</v>
       </c>
       <c r="E12">
-        <v>5.92</v>
+        <v>5.42</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>7.83</v>
+        <v>6.67</v>
       </c>
       <c r="E13">
-        <v>6.91</v>
+        <v>5.92</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
@@ -1943,25 +1987,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>7.46</v>
+        <v>7.83</v>
       </c>
       <c r="E14">
-        <v>6.68</v>
+        <v>6.91</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -1975,31 +2019,31 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>6.25</v>
+        <v>7.46</v>
       </c>
       <c r="E15">
-        <v>6.67</v>
+        <v>6.68</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -2007,191 +2051,191 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>6.13</v>
+        <v>6.25</v>
       </c>
       <c r="E16">
-        <v>6.18</v>
+        <v>6.67</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17">
-        <v>7.46</v>
+        <v>6.13</v>
       </c>
       <c r="E17">
-        <v>7.09</v>
+        <v>6.18</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>8.25</v>
+        <v>7.46</v>
       </c>
       <c r="E18">
-        <v>7.84</v>
+        <v>7.09</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>6.88</v>
+        <v>8.25</v>
       </c>
       <c r="E19">
-        <v>6.97</v>
+        <v>7.84</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20">
-        <v>6.13</v>
+        <v>6.88</v>
       </c>
       <c r="E20">
-        <v>5.86</v>
+        <v>6.97</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>6.13</v>
       </c>
       <c r="E21">
-        <v>6.45</v>
+        <v>5.86</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
@@ -2199,147 +2243,147 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22">
-        <v>6.79</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>6.45</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23">
-        <v>7.63</v>
+        <v>6.79</v>
       </c>
       <c r="E23">
-        <v>6.8</v>
+        <v>6.45</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24">
-        <v>6.38</v>
+        <v>7.63</v>
       </c>
       <c r="E24">
-        <v>6.79</v>
+        <v>6.8</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25">
-        <v>7.58</v>
+        <v>6.38</v>
       </c>
       <c r="E25">
-        <v>7.46</v>
+        <v>6.79</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26">
-        <v>7.25</v>
+        <v>7.58</v>
       </c>
       <c r="E26">
-        <v>6.79</v>
+        <v>7.46</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -2354,30 +2398,30 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27">
-        <v>6.71</v>
+        <v>7.25</v>
       </c>
       <c r="E27">
-        <v>6.71</v>
+        <v>6.79</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -2386,91 +2430,91 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28">
-        <v>5.46</v>
+        <v>6.71</v>
       </c>
       <c r="E28">
-        <v>4.5199999999999996</v>
+        <v>6.71</v>
       </c>
       <c r="F28" t="s">
         <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29">
-        <v>8.2100000000000009</v>
+        <v>5.46</v>
       </c>
       <c r="E29">
-        <v>7.3</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30">
-        <v>7.58</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="E30">
-        <v>7.24</v>
+        <v>7.3</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
@@ -2482,126 +2526,126 @@
         <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31">
-        <v>5.38</v>
+        <v>7.58</v>
       </c>
       <c r="E31">
-        <v>5.24</v>
+        <v>7.24</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32">
-        <v>7.42</v>
+        <v>5.38</v>
       </c>
       <c r="E32">
-        <v>7.16</v>
+        <v>5.24</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>5.63</v>
+        <v>7.42</v>
       </c>
       <c r="E33">
-        <v>5.57</v>
+        <v>7.16</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D34">
-        <v>6.83</v>
+        <v>5.63</v>
       </c>
       <c r="E34">
-        <v>6.69</v>
+        <v>5.57</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
@@ -2610,91 +2654,91 @@
         <v>20</v>
       </c>
       <c r="J34" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>4.21</v>
+        <v>6.83</v>
       </c>
       <c r="E35">
-        <v>5.2</v>
+        <v>6.69</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="D36">
-        <v>6.88</v>
+        <v>4.21</v>
       </c>
       <c r="E36">
-        <v>7.19</v>
+        <v>5.2</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D37">
-        <v>5.63</v>
+        <v>6.88</v>
       </c>
       <c r="E37">
-        <v>5.73</v>
+        <v>7.19</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
         <v>13</v>
@@ -2706,196 +2750,196 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
         <v>92</v>
       </c>
       <c r="D38">
-        <v>4.83</v>
+        <v>5.63</v>
       </c>
       <c r="E38">
-        <v>5.56</v>
+        <v>5.73</v>
       </c>
       <c r="F38" t="s">
         <v>82</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D39">
-        <v>6.13</v>
+        <v>4.83</v>
       </c>
       <c r="E39">
-        <v>6.31</v>
+        <v>5.56</v>
       </c>
       <c r="F39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
         <v>23</v>
       </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" t="s">
-        <v>14</v>
-      </c>
       <c r="J39" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40">
-        <v>7.21</v>
+        <v>6.13</v>
       </c>
       <c r="E40">
-        <v>6.91</v>
+        <v>6.31</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G40" t="s">
         <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>2.83</v>
+        <v>7.21</v>
       </c>
       <c r="E41">
-        <v>4.88</v>
+        <v>6.91</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="I41" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D42">
-        <v>6.38</v>
+        <v>2.83</v>
       </c>
       <c r="E42">
-        <v>6.48</v>
+        <v>4.88</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43">
-        <v>6.08</v>
+        <v>6.38</v>
       </c>
       <c r="E43">
-        <v>6.12</v>
+        <v>6.48</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s">
         <v>20</v>
@@ -2903,51 +2947,51 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44">
-        <v>7.21</v>
+        <v>6.08</v>
       </c>
       <c r="E44">
-        <v>7.18</v>
+        <v>6.12</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45">
-        <v>7.29</v>
+        <v>7.21</v>
       </c>
       <c r="E45">
-        <v>7.24</v>
+        <v>7.18</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -2959,39 +3003,39 @@
         <v>13</v>
       </c>
       <c r="I45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>7.29</v>
       </c>
       <c r="E46">
-        <v>6.92</v>
+        <v>7.24</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J46" t="s">
         <v>13</v>
@@ -2999,63 +3043,63 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D47">
-        <v>5.38</v>
+        <v>7</v>
       </c>
       <c r="E47">
-        <v>6.05</v>
+        <v>6.92</v>
       </c>
       <c r="F47" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
         <v>92</v>
       </c>
       <c r="D48">
-        <v>4.88</v>
+        <v>5.38</v>
       </c>
       <c r="E48">
-        <v>5.62</v>
+        <v>6.05</v>
       </c>
       <c r="F48" t="s">
         <v>82</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J48" t="s">
         <v>20</v>
@@ -3063,60 +3107,60 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D49">
-        <v>7.33</v>
+        <v>4.88</v>
       </c>
       <c r="E49">
-        <v>6.96</v>
+        <v>5.62</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J49" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50">
-        <v>7.29</v>
+        <v>7.33</v>
       </c>
       <c r="E50">
-        <v>6.9</v>
+        <v>6.96</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I50" t="s">
         <v>14</v>
@@ -3127,25 +3171,25 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51">
-        <v>6.42</v>
+        <v>7.29</v>
       </c>
       <c r="E51">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s">
         <v>14</v>
@@ -3154,219 +3198,219 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
       <c r="D52">
-        <v>7.79</v>
+        <v>6.42</v>
       </c>
       <c r="E52">
-        <v>7.77</v>
+        <v>6.3</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
       <c r="D53">
-        <v>6.21</v>
+        <v>7.79</v>
       </c>
       <c r="E53">
-        <v>6.29</v>
+        <v>7.77</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I53" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54">
-        <v>7.83</v>
+        <v>6.21</v>
       </c>
       <c r="E54">
-        <v>7.52</v>
+        <v>6.29</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I54" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>2.92</v>
+        <v>7.83</v>
       </c>
       <c r="E55">
-        <v>4.41</v>
+        <v>7.52</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="I55" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J55" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="D56">
-        <v>6.67</v>
+        <v>2.92</v>
       </c>
       <c r="E56">
-        <v>6.15</v>
+        <v>4.41</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H56" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J56" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57">
-        <v>6.08</v>
+        <v>6.67</v>
       </c>
       <c r="E57">
-        <v>6.37</v>
+        <v>6.15</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I57" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J57" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
       </c>
       <c r="D58">
-        <v>6.92</v>
+        <v>6.08</v>
       </c>
       <c r="E58">
-        <v>6.54</v>
+        <v>6.37</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
@@ -3375,103 +3419,103 @@
         <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J58" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>4.71</v>
+        <v>6.92</v>
       </c>
       <c r="E59">
-        <v>5.55</v>
+        <v>6.54</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J59" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D60">
-        <v>6.92</v>
+        <v>4.71</v>
       </c>
       <c r="E60">
-        <v>7.32</v>
+        <v>5.55</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J60" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
       </c>
       <c r="D61">
-        <v>6.21</v>
+        <v>6.92</v>
       </c>
       <c r="E61">
-        <v>6.26</v>
+        <v>7.32</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
         <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I61" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J61" t="s">
         <v>14</v>
@@ -3479,19 +3523,19 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
       </c>
       <c r="D62">
-        <v>5.75</v>
+        <v>6.21</v>
       </c>
       <c r="E62">
-        <v>6.08</v>
+        <v>6.26</v>
       </c>
       <c r="F62" t="s">
         <v>20</v>
@@ -3500,94 +3544,94 @@
         <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I62" t="s">
         <v>20</v>
       </c>
       <c r="J62" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
       </c>
       <c r="D63">
-        <v>6.63</v>
+        <v>5.75</v>
       </c>
       <c r="E63">
-        <v>6.6</v>
+        <v>6.08</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G63" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
         <v>13</v>
       </c>
       <c r="I63" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J63" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>6.63</v>
       </c>
       <c r="E64">
-        <v>7.09</v>
+        <v>6.6</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
       </c>
       <c r="D65">
-        <v>7.17</v>
+        <v>7</v>
       </c>
       <c r="E65">
-        <v>6.87</v>
+        <v>7.09</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -3596,68 +3640,68 @@
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I65" t="s">
         <v>13</v>
       </c>
       <c r="J65" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="D66">
-        <v>3.38</v>
+        <v>7.17</v>
       </c>
       <c r="E66">
-        <v>4.58</v>
+        <v>6.87</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I66" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C67" t="s">
         <v>153</v>
       </c>
       <c r="D67">
-        <v>3.58</v>
+        <v>3.38</v>
       </c>
       <c r="E67">
-        <v>4.71</v>
+        <v>4.58</v>
       </c>
       <c r="F67" t="s">
         <v>82</v>
       </c>
       <c r="G67" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H67" t="s">
         <v>23</v>
@@ -3671,223 +3715,223 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D68">
-        <v>5.54</v>
+        <v>3.58</v>
       </c>
       <c r="E68">
-        <v>6.04</v>
+        <v>4.71</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="G68" t="s">
         <v>20</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I68" t="s">
         <v>23</v>
       </c>
       <c r="J68" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="D69">
-        <v>6.92</v>
+        <v>5.54</v>
       </c>
       <c r="E69">
-        <v>6.69</v>
+        <v>6.04</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J69" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
       </c>
       <c r="D70">
-        <v>5.58</v>
+        <v>6.92</v>
       </c>
       <c r="E70">
-        <v>5.63</v>
+        <v>6.69</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I70" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71">
-        <v>6.75</v>
+        <v>5.58</v>
       </c>
       <c r="E71">
-        <v>6.96</v>
+        <v>5.63</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I71" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J71" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
       </c>
       <c r="D72">
-        <v>5.46</v>
+        <v>6.75</v>
       </c>
       <c r="E72">
-        <v>5.33</v>
+        <v>6.96</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
         <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I72" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
       </c>
       <c r="D73">
-        <v>8.1300000000000008</v>
+        <v>5.46</v>
       </c>
       <c r="E73">
-        <v>8.15</v>
+        <v>5.33</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I73" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J73" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
       </c>
       <c r="D74">
-        <v>8.25</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="E74">
-        <v>8.1199999999999992</v>
+        <v>8.15</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H74" t="s">
         <v>17</v>
       </c>
       <c r="I74" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J74" t="s">
         <v>17</v>
@@ -3895,33 +3939,65 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <v>8.25</v>
+      </c>
+      <c r="E75">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F75" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>172</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>173</v>
       </c>
-      <c r="C75" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75">
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76">
         <v>7.08</v>
       </c>
-      <c r="E75">
+      <c r="E76">
         <v>7.63</v>
       </c>
-      <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" t="s">
-        <v>13</v>
-      </c>
-      <c r="J75" t="s">
+      <c r="F76" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3935,10 +4011,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DF4314-917B-4E80-AD2E-2E0EC02AB033}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3981,43 +4057,43 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>8.25</v>
-      </c>
-      <c r="E2">
-        <v>7.84</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8.33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -4026,51 +4102,51 @@
         <v>8.25</v>
       </c>
       <c r="E3">
-        <v>8.1199999999999992</v>
+        <v>7.84</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>8.2100000000000009</v>
+        <v>8.25</v>
       </c>
       <c r="E4">
-        <v>7.3</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -4078,28 +4154,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>8.1300000000000008</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="E5">
-        <v>8.15</v>
+        <v>7.3</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -4110,25 +4186,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>7.83</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="E6">
-        <v>6.91</v>
+        <v>8.15</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>17</v>
@@ -4137,15 +4213,15 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -4154,10 +4230,10 @@
         <v>7.83</v>
       </c>
       <c r="E7">
-        <v>7.52</v>
+        <v>6.91</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -4169,68 +4245,68 @@
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>7.79</v>
+        <v>7.83</v>
       </c>
       <c r="E8">
-        <v>7.77</v>
+        <v>7.52</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>7.63</v>
+        <v>7.79</v>
       </c>
       <c r="E9">
-        <v>6.8</v>
+        <v>7.77</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
@@ -4238,28 +4314,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>7.58</v>
+        <v>7.63</v>
       </c>
       <c r="E10">
-        <v>7.46</v>
+        <v>6.8</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -4270,10 +4346,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -4282,7 +4358,7 @@
         <v>7.58</v>
       </c>
       <c r="E11">
-        <v>7.24</v>
+        <v>7.46</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -4294,36 +4370,36 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>7.46</v>
+        <v>7.58</v>
       </c>
       <c r="E12">
-        <v>6.68</v>
+        <v>7.24</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -4334,10 +4410,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -4346,42 +4422,42 @@
         <v>7.46</v>
       </c>
       <c r="E13">
-        <v>7.09</v>
+        <v>6.68</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>7.42</v>
+        <v>7.46</v>
       </c>
       <c r="E14">
-        <v>7.16</v>
+        <v>7.09</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -4390,30 +4466,30 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>7.33</v>
+        <v>7.42</v>
       </c>
       <c r="E15">
-        <v>6.96</v>
+        <v>7.16</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -4422,39 +4498,39 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>7.29</v>
+        <v>7.33</v>
       </c>
       <c r="E16">
-        <v>7.24</v>
+        <v>6.96</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
@@ -4462,10 +4538,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -4474,19 +4550,19 @@
         <v>7.29</v>
       </c>
       <c r="E17">
-        <v>6.9</v>
+        <v>7.24</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
@@ -4494,31 +4570,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>7.25</v>
+        <v>7.29</v>
       </c>
       <c r="E18">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
@@ -4526,10 +4602,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -4538,19 +4614,19 @@
         <v>7.25</v>
       </c>
       <c r="E19">
-        <v>6.79</v>
+        <v>7.1</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
@@ -4558,42 +4634,42 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20">
-        <v>7.21</v>
+        <v>7.25</v>
       </c>
       <c r="E20">
-        <v>6.91</v>
+        <v>6.79</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -4602,19 +4678,19 @@
         <v>7.21</v>
       </c>
       <c r="E21">
-        <v>7.18</v>
+        <v>6.91</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
@@ -4622,25 +4698,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22">
-        <v>7.17</v>
+        <v>7.21</v>
       </c>
       <c r="E22">
-        <v>7.26</v>
+        <v>7.18</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -4649,15 +4725,15 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -4666,10 +4742,10 @@
         <v>7.17</v>
       </c>
       <c r="E23">
-        <v>6.87</v>
+        <v>7.26</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
@@ -4678,33 +4754,33 @@
         <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24">
-        <v>7.08</v>
+        <v>7.17</v>
       </c>
       <c r="E24">
-        <v>7.63</v>
+        <v>6.87</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -4713,47 +4789,47 @@
         <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>7.08</v>
       </c>
       <c r="E25">
-        <v>6.45</v>
+        <v>7.63</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -4762,10 +4838,10 @@
         <v>7</v>
       </c>
       <c r="E26">
-        <v>6.92</v>
+        <v>6.45</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
@@ -4777,15 +4853,15 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -4794,39 +4870,39 @@
         <v>7</v>
       </c>
       <c r="E27">
-        <v>7.09</v>
+        <v>6.92</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28">
-        <v>6.92</v>
+        <v>7</v>
       </c>
       <c r="E28">
-        <v>6.54</v>
+        <v>7.09</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -4841,15 +4917,15 @@
         <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -4858,19 +4934,19 @@
         <v>6.92</v>
       </c>
       <c r="E29">
-        <v>7.32</v>
+        <v>6.54</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
         <v>14</v>
@@ -4878,10 +4954,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -4890,10 +4966,10 @@
         <v>6.92</v>
       </c>
       <c r="E30">
-        <v>6.69</v>
+        <v>7.32</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
@@ -4905,33 +4981,33 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31">
-        <v>6.88</v>
+        <v>6.92</v>
       </c>
       <c r="E31">
-        <v>6.97</v>
+        <v>6.69</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I31" t="s">
         <v>14</v>
@@ -4942,10 +5018,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -4954,10 +5030,10 @@
         <v>6.88</v>
       </c>
       <c r="E32">
-        <v>7.19</v>
+        <v>6.97</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
@@ -4974,57 +5050,57 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="D33">
-        <v>6.83</v>
+        <v>6.88</v>
       </c>
       <c r="E33">
-        <v>6.69</v>
+        <v>7.19</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34">
-        <v>6.79</v>
+        <v>6.83</v>
       </c>
       <c r="E34">
-        <v>6.45</v>
+        <v>6.69</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
@@ -5033,59 +5109,59 @@
         <v>20</v>
       </c>
       <c r="J34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35">
-        <v>6.75</v>
+        <v>6.79</v>
       </c>
       <c r="E35">
-        <v>6.96</v>
+        <v>6.45</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="D36">
-        <v>6.71</v>
+        <v>6.75</v>
       </c>
       <c r="E36">
-        <v>6.71</v>
+        <v>6.96</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
@@ -5097,27 +5173,27 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37">
-        <v>6.67</v>
+        <v>6.71</v>
       </c>
       <c r="E37">
-        <v>6.59</v>
+        <v>6.71</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
@@ -5126,7 +5202,7 @@
         <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
@@ -5134,10 +5210,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -5146,7 +5222,7 @@
         <v>6.67</v>
       </c>
       <c r="E38">
-        <v>5.92</v>
+        <v>6.59</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -5158,18 +5234,18 @@
         <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -5178,7 +5254,7 @@
         <v>6.67</v>
       </c>
       <c r="E39">
-        <v>6.15</v>
+        <v>5.92</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -5190,39 +5266,39 @@
         <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40">
-        <v>6.63</v>
+        <v>6.67</v>
       </c>
       <c r="E40">
-        <v>6.6</v>
+        <v>6.15</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
       </c>
       <c r="I40" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J40" t="s">
         <v>14</v>
@@ -5230,95 +5306,95 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41">
-        <v>6.54</v>
+        <v>6.63</v>
       </c>
       <c r="E41">
-        <v>6.48</v>
+        <v>6.6</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42">
-        <v>6.42</v>
+        <v>6.54</v>
       </c>
       <c r="E42">
-        <v>6.3</v>
+        <v>6.48</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43">
-        <v>6.38</v>
+        <v>6.42</v>
       </c>
       <c r="E43">
-        <v>6.79</v>
+        <v>6.3</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J43" t="s">
         <v>14</v>
@@ -5326,10 +5402,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -5338,7 +5414,7 @@
         <v>6.38</v>
       </c>
       <c r="E44">
-        <v>6.48</v>
+        <v>6.79</v>
       </c>
       <c r="F44" t="s">
         <v>20</v>
@@ -5347,62 +5423,62 @@
         <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I44" t="s">
         <v>20</v>
       </c>
       <c r="J44" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45">
-        <v>6.25</v>
+        <v>6.38</v>
       </c>
       <c r="E45">
-        <v>6.67</v>
+        <v>6.48</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J45" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
       <c r="D46">
-        <v>6.21</v>
+        <v>6.25</v>
       </c>
       <c r="E46">
-        <v>6.19</v>
+        <v>6.67</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -5414,18 +5490,18 @@
         <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -5434,13 +5510,13 @@
         <v>6.21</v>
       </c>
       <c r="E47">
-        <v>6.29</v>
+        <v>6.19</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
@@ -5449,15 +5525,15 @@
         <v>20</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -5466,7 +5542,7 @@
         <v>6.21</v>
       </c>
       <c r="E48">
-        <v>6.26</v>
+        <v>6.29</v>
       </c>
       <c r="F48" t="s">
         <v>20</v>
@@ -5481,27 +5557,27 @@
         <v>20</v>
       </c>
       <c r="J48" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
       </c>
       <c r="D49">
-        <v>6.17</v>
+        <v>6.21</v>
       </c>
       <c r="E49">
-        <v>6.31</v>
+        <v>6.26</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
@@ -5510,7 +5586,7 @@
         <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J49" t="s">
         <v>14</v>
@@ -5518,31 +5594,31 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50">
-        <v>6.13</v>
+        <v>6.17</v>
       </c>
       <c r="E50">
-        <v>6.18</v>
+        <v>6.31</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J50" t="s">
         <v>14</v>
@@ -5550,10 +5626,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -5562,16 +5638,16 @@
         <v>6.13</v>
       </c>
       <c r="E51">
-        <v>5.86</v>
+        <v>6.18</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I51" t="s">
         <v>23</v>
@@ -5582,10 +5658,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -5594,62 +5670,62 @@
         <v>6.13</v>
       </c>
       <c r="E52">
-        <v>6.31</v>
+        <v>5.86</v>
       </c>
       <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
         <v>23</v>
       </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" t="s">
-        <v>14</v>
-      </c>
       <c r="J52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
       <c r="D53">
-        <v>6.08</v>
+        <v>6.13</v>
       </c>
       <c r="E53">
-        <v>6.12</v>
+        <v>6.31</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I53" t="s">
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -5658,7 +5734,7 @@
         <v>6.08</v>
       </c>
       <c r="E54">
-        <v>6.37</v>
+        <v>6.12</v>
       </c>
       <c r="F54" t="s">
         <v>20</v>
@@ -5667,10 +5743,10 @@
         <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J54" t="s">
         <v>20</v>
@@ -5678,159 +5754,159 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="E55">
-        <v>6.3</v>
+        <v>6.37</v>
       </c>
       <c r="F55" t="s">
         <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
       </c>
       <c r="D56">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="E56">
-        <v>6.08</v>
+        <v>6.3</v>
       </c>
       <c r="F56" t="s">
         <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I56" t="s">
         <v>20</v>
       </c>
       <c r="J56" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D57">
-        <v>5.63</v>
+        <v>5.75</v>
       </c>
       <c r="E57">
-        <v>5.57</v>
+        <v>6.08</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G57" t="s">
         <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I57" t="s">
         <v>20</v>
       </c>
       <c r="J57" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D58">
         <v>5.63</v>
       </c>
       <c r="E58">
-        <v>5.73</v>
+        <v>5.57</v>
       </c>
       <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
         <v>82</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D59">
-        <v>5.58</v>
+        <v>5.63</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>5.73</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="G59" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
@@ -5838,10 +5914,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -5850,39 +5926,39 @@
         <v>5.58</v>
       </c>
       <c r="E60">
-        <v>5.63</v>
+        <v>5</v>
       </c>
       <c r="F60" t="s">
         <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H60" t="s">
         <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J60" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="D61">
-        <v>5.54</v>
+        <v>5.58</v>
       </c>
       <c r="E61">
-        <v>6.04</v>
+        <v>5.63</v>
       </c>
       <c r="F61" t="s">
         <v>20</v>
@@ -5891,33 +5967,33 @@
         <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
         <v>23</v>
       </c>
       <c r="J61" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="D62">
-        <v>5.5</v>
+        <v>5.54</v>
       </c>
       <c r="E62">
-        <v>5.42</v>
+        <v>6.04</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G62" t="s">
         <v>20</v>
@@ -5926,50 +6002,50 @@
         <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J62" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
       </c>
       <c r="D63">
-        <v>5.46</v>
+        <v>5.5</v>
       </c>
       <c r="E63">
-        <v>5.62</v>
+        <v>5.42</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s">
         <v>23</v>
-      </c>
-      <c r="H63" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -5978,19 +6054,19 @@
         <v>5.46</v>
       </c>
       <c r="E64">
-        <v>4.5199999999999996</v>
+        <v>5.62</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H64" t="s">
         <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J64" t="s">
         <v>20</v>
@@ -5998,10 +6074,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
@@ -6010,83 +6086,83 @@
         <v>5.46</v>
       </c>
       <c r="E65">
-        <v>5.33</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="F65" t="s">
         <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J65" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
       </c>
       <c r="D66">
-        <v>5.38</v>
+        <v>5.46</v>
       </c>
       <c r="E66">
-        <v>5.24</v>
+        <v>5.33</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
       </c>
       <c r="G66" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I66" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s">
         <v>23</v>
-      </c>
-      <c r="J66" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D67">
         <v>5.38</v>
       </c>
       <c r="E67">
-        <v>6.05</v>
+        <v>5.24</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J67" t="s">
         <v>20</v>
@@ -6094,31 +6170,31 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
         <v>92</v>
       </c>
       <c r="D68">
-        <v>4.88</v>
+        <v>5.38</v>
       </c>
       <c r="E68">
-        <v>5.62</v>
+        <v>6.05</v>
       </c>
       <c r="F68" t="s">
         <v>82</v>
       </c>
       <c r="G68" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J68" t="s">
         <v>20</v>
@@ -6126,25 +6202,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
         <v>92</v>
       </c>
       <c r="D69">
-        <v>4.83</v>
+        <v>4.88</v>
       </c>
       <c r="E69">
-        <v>5.56</v>
+        <v>5.62</v>
       </c>
       <c r="F69" t="s">
         <v>82</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H69" t="s">
         <v>20</v>
@@ -6158,121 +6234,121 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D70">
-        <v>4.71</v>
+        <v>4.83</v>
       </c>
       <c r="E70">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="G70" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
         <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J70" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D71">
-        <v>4.21</v>
+        <v>4.71</v>
       </c>
       <c r="E71">
-        <v>5.2</v>
+        <v>5.55</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G71" t="s">
         <v>20</v>
       </c>
       <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s">
         <v>82</v>
-      </c>
-      <c r="I71" t="s">
-        <v>23</v>
-      </c>
-      <c r="J71" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="D72">
-        <v>3.58</v>
+        <v>4.21</v>
       </c>
       <c r="E72">
-        <v>4.71</v>
+        <v>5.2</v>
       </c>
       <c r="F72" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" t="s">
         <v>82</v>
-      </c>
-      <c r="G72" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" t="s">
-        <v>23</v>
       </c>
       <c r="I72" t="s">
         <v>23</v>
       </c>
       <c r="J72" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
         <v>153</v>
       </c>
       <c r="D73">
-        <v>3.38</v>
+        <v>3.58</v>
       </c>
       <c r="E73">
-        <v>4.58</v>
+        <v>4.71</v>
       </c>
       <c r="F73" t="s">
         <v>82</v>
       </c>
       <c r="G73" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H73" t="s">
         <v>23</v>
@@ -6286,19 +6362,19 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D74">
-        <v>2.92</v>
+        <v>3.38</v>
       </c>
       <c r="E74">
-        <v>4.41</v>
+        <v>4.58</v>
       </c>
       <c r="F74" t="s">
         <v>82</v>
@@ -6307,44 +6383,76 @@
         <v>23</v>
       </c>
       <c r="H74" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I74" t="s">
         <v>23</v>
       </c>
       <c r="J74" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="D75">
-        <v>2.83</v>
+        <v>2.92</v>
       </c>
       <c r="E75">
-        <v>4.88</v>
+        <v>4.41</v>
       </c>
       <c r="F75" t="s">
         <v>82</v>
       </c>
       <c r="G75" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H75" t="s">
         <v>82</v>
       </c>
       <c r="I75" t="s">
+        <v>23</v>
+      </c>
+      <c r="J75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="E76" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J75" t="s">
+      <c r="G76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J76" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6401,10 +6509,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF29ECF-6EA2-4E56-81A4-41723AE8536C}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6447,64 +6555,64 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="E2">
-        <v>8.15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
+      <c r="A2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8.33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>8.25</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="E3">
-        <v>8.1199999999999992</v>
+        <v>8.15</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -6512,10 +6620,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -6524,39 +6632,39 @@
         <v>8.25</v>
       </c>
       <c r="E4">
-        <v>7.84</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>7.79</v>
+        <v>8.25</v>
       </c>
       <c r="E5">
-        <v>7.77</v>
+        <v>7.84</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -6565,36 +6673,36 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>7.08</v>
+        <v>7.79</v>
       </c>
       <c r="E6">
-        <v>7.63</v>
+        <v>7.77</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -6603,94 +6711,94 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>7.83</v>
+        <v>7.08</v>
       </c>
       <c r="E7">
-        <v>7.52</v>
+        <v>7.63</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>7.58</v>
+        <v>7.83</v>
       </c>
       <c r="E8">
-        <v>7.46</v>
+        <v>7.52</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>6.92</v>
+        <v>7.58</v>
       </c>
       <c r="E9">
-        <v>7.32</v>
+        <v>7.46</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -6699,100 +6807,100 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>8.2100000000000009</v>
+        <v>6.92</v>
       </c>
       <c r="E10">
-        <v>7.3</v>
+        <v>7.32</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>7.17</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="E11">
-        <v>7.26</v>
+        <v>7.3</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>7.58</v>
+        <v>7.17</v>
       </c>
       <c r="E12">
-        <v>7.24</v>
+        <v>7.26</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
@@ -6800,22 +6908,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>7.29</v>
+        <v>7.58</v>
       </c>
       <c r="E13">
         <v>7.24</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -6832,31 +6940,31 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>6.88</v>
+        <v>7.29</v>
       </c>
       <c r="E14">
-        <v>7.19</v>
+        <v>7.24</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
         <v>13</v>
@@ -6864,63 +6972,63 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>7.21</v>
+        <v>6.88</v>
       </c>
       <c r="E15">
-        <v>7.18</v>
+        <v>7.19</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>7.42</v>
+        <v>7.21</v>
       </c>
       <c r="E16">
-        <v>7.16</v>
+        <v>7.18</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
@@ -6928,51 +7036,51 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17">
-        <v>7.25</v>
+        <v>7.42</v>
       </c>
       <c r="E17">
-        <v>7.1</v>
+        <v>7.16</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>7.46</v>
+        <v>7.25</v>
       </c>
       <c r="E18">
-        <v>7.09</v>
+        <v>7.1</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -6981,27 +7089,27 @@
         <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>7.46</v>
       </c>
       <c r="E19">
         <v>7.09</v>
@@ -7013,30 +7121,30 @@
         <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20">
-        <v>6.88</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>6.97</v>
+        <v>7.09</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -7048,36 +7156,36 @@
         <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21">
-        <v>7.33</v>
+        <v>6.88</v>
       </c>
       <c r="E21">
-        <v>6.96</v>
+        <v>6.97</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
         <v>14</v>
@@ -7088,25 +7196,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22">
-        <v>6.75</v>
+        <v>7.33</v>
       </c>
       <c r="E22">
         <v>6.96</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -7115,30 +7223,30 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="E23">
-        <v>6.92</v>
+        <v>6.96</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -7147,36 +7255,36 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24">
-        <v>7.83</v>
+        <v>7</v>
       </c>
       <c r="E24">
-        <v>6.91</v>
+        <v>6.92</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
         <v>13</v>
@@ -7184,217 +7292,217 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25">
-        <v>7.21</v>
+        <v>7.83</v>
       </c>
       <c r="E25">
         <v>6.91</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26">
-        <v>7.29</v>
+        <v>7.21</v>
       </c>
       <c r="E26">
-        <v>6.9</v>
+        <v>6.91</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27">
-        <v>7.17</v>
+        <v>7.29</v>
       </c>
       <c r="E27">
-        <v>6.87</v>
+        <v>6.9</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28">
-        <v>7.63</v>
+        <v>7.17</v>
       </c>
       <c r="E28">
-        <v>6.8</v>
+        <v>6.87</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29">
-        <v>6.38</v>
+        <v>7.63</v>
       </c>
       <c r="E29">
-        <v>6.79</v>
+        <v>6.8</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30">
-        <v>7.25</v>
+        <v>6.38</v>
       </c>
       <c r="E30">
         <v>6.79</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31">
-        <v>6.71</v>
+        <v>7.25</v>
       </c>
       <c r="E31">
-        <v>6.71</v>
+        <v>6.79</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -7403,36 +7511,36 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32">
-        <v>6.83</v>
+        <v>6.71</v>
       </c>
       <c r="E32">
-        <v>6.69</v>
+        <v>6.71</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
@@ -7440,16 +7548,16 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="D33">
-        <v>6.92</v>
+        <v>6.83</v>
       </c>
       <c r="E33">
         <v>6.69</v>
@@ -7458,45 +7566,45 @@
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34">
-        <v>7.46</v>
+        <v>6.92</v>
       </c>
       <c r="E34">
-        <v>6.68</v>
+        <v>6.69</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J34" t="s">
         <v>13</v>
@@ -7504,31 +7612,31 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35">
-        <v>6.25</v>
+        <v>7.46</v>
       </c>
       <c r="E35">
-        <v>6.67</v>
+        <v>6.68</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
         <v>13</v>
@@ -7536,19 +7644,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="D36">
-        <v>6.63</v>
+        <v>6.25</v>
       </c>
       <c r="E36">
-        <v>6.6</v>
+        <v>6.67</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -7557,42 +7665,42 @@
         <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I36" t="s">
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37">
-        <v>6.67</v>
+        <v>6.63</v>
       </c>
       <c r="E37">
-        <v>6.59</v>
+        <v>6.6</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
@@ -7600,31 +7708,31 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38">
-        <v>6.92</v>
+        <v>6.67</v>
       </c>
       <c r="E38">
-        <v>6.54</v>
+        <v>6.59</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J38" t="s">
         <v>14</v>
@@ -7632,150 +7740,150 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39">
+        <v>6.92</v>
+      </c>
+      <c r="E39">
         <v>6.54</v>
       </c>
-      <c r="E39">
-        <v>6.48</v>
-      </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40">
-        <v>6.38</v>
+        <v>6.54</v>
       </c>
       <c r="E40">
         <v>6.48</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I40" t="s">
         <v>20</v>
       </c>
       <c r="J40" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>6.38</v>
       </c>
       <c r="E41">
-        <v>6.45</v>
+        <v>6.48</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J41" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42">
-        <v>6.79</v>
+        <v>7</v>
       </c>
       <c r="E42">
         <v>6.45</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43">
-        <v>6.08</v>
+        <v>6.79</v>
       </c>
       <c r="E43">
-        <v>6.37</v>
+        <v>6.45</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
@@ -7784,65 +7892,65 @@
         <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44">
-        <v>6.17</v>
+        <v>6.08</v>
       </c>
       <c r="E44">
-        <v>6.31</v>
+        <v>6.37</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
         <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45">
-        <v>6.13</v>
+        <v>6.17</v>
       </c>
       <c r="E45">
         <v>6.31</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
         <v>14</v>
@@ -7851,53 +7959,53 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>6.13</v>
       </c>
       <c r="E46">
-        <v>6.3</v>
+        <v>6.31</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
         <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47">
-        <v>6.42</v>
+        <v>6</v>
       </c>
       <c r="E47">
         <v>6.3</v>
@@ -7906,13 +8014,13 @@
         <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J47" t="s">
         <v>14</v>
@@ -7920,42 +8028,42 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48">
-        <v>6.21</v>
+        <v>6.42</v>
       </c>
       <c r="E48">
-        <v>6.29</v>
+        <v>6.3</v>
       </c>
       <c r="F48" t="s">
         <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -7964,7 +8072,7 @@
         <v>6.21</v>
       </c>
       <c r="E49">
-        <v>6.26</v>
+        <v>6.29</v>
       </c>
       <c r="F49" t="s">
         <v>20</v>
@@ -7979,15 +8087,15 @@
         <v>20</v>
       </c>
       <c r="J49" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -7996,13 +8104,13 @@
         <v>6.21</v>
       </c>
       <c r="E50">
-        <v>6.19</v>
+        <v>6.26</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
         <v>14</v>
@@ -8016,31 +8124,31 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51">
-        <v>6.13</v>
+        <v>6.21</v>
       </c>
       <c r="E51">
-        <v>6.18</v>
+        <v>6.19</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J51" t="s">
         <v>14</v>
@@ -8048,31 +8156,31 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
       <c r="D52">
-        <v>6.67</v>
+        <v>6.13</v>
       </c>
       <c r="E52">
-        <v>6.15</v>
+        <v>6.18</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
         <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I52" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
@@ -8080,63 +8188,63 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
       <c r="D53">
-        <v>6.08</v>
+        <v>6.67</v>
       </c>
       <c r="E53">
-        <v>6.12</v>
+        <v>6.15</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J53" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54">
-        <v>5.75</v>
+        <v>6.08</v>
       </c>
       <c r="E54">
-        <v>6.08</v>
+        <v>6.12</v>
       </c>
       <c r="F54" t="s">
         <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J54" t="s">
         <v>20</v>
@@ -8144,28 +8252,28 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>5.38</v>
+        <v>5.75</v>
       </c>
       <c r="E55">
-        <v>6.05</v>
+        <v>6.08</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I55" t="s">
         <v>20</v>
@@ -8176,127 +8284,127 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="D56">
-        <v>5.54</v>
+        <v>5.38</v>
       </c>
       <c r="E56">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J56" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="D57">
-        <v>6.67</v>
+        <v>5.54</v>
       </c>
       <c r="E57">
-        <v>5.92</v>
+        <v>6.04</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I57" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J57" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
       </c>
       <c r="D58">
-        <v>6.13</v>
+        <v>6.67</v>
       </c>
       <c r="E58">
-        <v>5.86</v>
+        <v>5.92</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I58" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>5.63</v>
+        <v>6.13</v>
       </c>
       <c r="E59">
-        <v>5.73</v>
+        <v>5.86</v>
       </c>
       <c r="F59" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
@@ -8304,95 +8412,95 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D60">
-        <v>5.58</v>
+        <v>5.63</v>
       </c>
       <c r="E60">
-        <v>5.63</v>
+        <v>5.73</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
       </c>
       <c r="D61">
-        <v>5.46</v>
+        <v>5.58</v>
       </c>
       <c r="E61">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="F61" t="s">
         <v>20</v>
       </c>
       <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s">
         <v>23</v>
       </c>
-      <c r="H61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" t="s">
-        <v>20</v>
-      </c>
       <c r="J61" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>4.88</v>
+        <v>5.46</v>
       </c>
       <c r="E62">
         <v>5.62</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="G62" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H62" t="s">
         <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J62" t="s">
         <v>20</v>
@@ -8400,153 +8508,153 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D63">
-        <v>5.63</v>
+        <v>4.88</v>
       </c>
       <c r="E63">
-        <v>5.57</v>
+        <v>5.62</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J63" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D64">
-        <v>4.83</v>
+        <v>5.63</v>
       </c>
       <c r="E64">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
         <v>82</v>
-      </c>
-      <c r="G64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" t="s">
-        <v>23</v>
-      </c>
-      <c r="J64" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D65">
-        <v>4.71</v>
+        <v>4.83</v>
       </c>
       <c r="E65">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
         <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J65" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D66">
-        <v>5.5</v>
+        <v>4.71</v>
       </c>
       <c r="E66">
-        <v>5.42</v>
+        <v>5.55</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G66" t="s">
         <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
         <v>20</v>
       </c>
       <c r="J66" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
       </c>
       <c r="D67">
-        <v>5.46</v>
+        <v>5.5</v>
       </c>
       <c r="E67">
-        <v>5.33</v>
+        <v>5.42</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
@@ -8560,147 +8668,147 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="D68">
-        <v>5.38</v>
+        <v>5.46</v>
       </c>
       <c r="E68">
-        <v>5.24</v>
+        <v>5.33</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s">
         <v>23</v>
-      </c>
-      <c r="J68" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>4.21</v>
+        <v>5.38</v>
       </c>
       <c r="E69">
-        <v>5.2</v>
+        <v>5.24</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G69" t="s">
         <v>20</v>
       </c>
       <c r="H69" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I69" t="s">
         <v>23</v>
       </c>
       <c r="J69" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="D70">
-        <v>5.58</v>
+        <v>4.21</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G70" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" t="s">
+        <v>82</v>
+      </c>
+      <c r="I70" t="s">
         <v>23</v>
       </c>
-      <c r="H70" t="s">
-        <v>20</v>
-      </c>
-      <c r="I70" t="s">
-        <v>20</v>
-      </c>
       <c r="J70" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D71">
-        <v>2.83</v>
+        <v>5.58</v>
       </c>
       <c r="E71">
-        <v>4.88</v>
+        <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H71" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I71" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="D72">
-        <v>3.58</v>
+        <v>2.83</v>
       </c>
       <c r="E72">
-        <v>4.71</v>
+        <v>4.88</v>
       </c>
       <c r="F72" t="s">
         <v>82</v>
@@ -8709,10 +8817,10 @@
         <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="J72" t="s">
         <v>82</v>
@@ -8720,25 +8828,25 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
         <v>153</v>
       </c>
       <c r="D73">
-        <v>3.38</v>
+        <v>3.58</v>
       </c>
       <c r="E73">
-        <v>4.58</v>
+        <v>4.71</v>
       </c>
       <c r="F73" t="s">
         <v>82</v>
       </c>
       <c r="G73" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H73" t="s">
         <v>23</v>
@@ -8752,65 +8860,97 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="D74">
-        <v>5.46</v>
+        <v>3.38</v>
       </c>
       <c r="E74">
-        <v>4.5199999999999996</v>
+        <v>4.58</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H74" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I74" t="s">
         <v>23</v>
       </c>
       <c r="J74" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="D75">
-        <v>2.92</v>
+        <v>5.46</v>
       </c>
       <c r="E75">
-        <v>4.41</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="F75" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H75" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I75" t="s">
         <v>23</v>
       </c>
       <c r="J75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="4">
+        <v>2.92</v>
+      </c>
+      <c r="E76" s="4">
+        <v>4.41</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J76" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8871,8 +9011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA04F827-3AB8-41AC-AFF9-4C8107DB0860}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8914,36 +9054,68 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>7.17</v>
+      </c>
+      <c r="E2">
+        <v>7.26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>7.17</v>
+        <v>8.5</v>
       </c>
       <c r="E3">
-        <v>7.26</v>
+        <v>8.33</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
